--- a/data/Spreadsheet_Data/Character.xlsx
+++ b/data/Spreadsheet_Data/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C0787C-3D19-904E-8CFC-573E9F23615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A8FEB-343A-FA4C-8225-49C0A775AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="9200" windowWidth="37120" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
+    <workbookView xWindow="31580" yWindow="500" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -332,14 +332,98 @@
   </si>
   <si>
     <t>Office Management</t>
+  </si>
+  <si>
+    <t>IH_018</t>
+  </si>
+  <si>
+    <t>IH_001</t>
+  </si>
+  <si>
+    <t>IH_021</t>
+  </si>
+  <si>
+    <t>IH_020</t>
+  </si>
+  <si>
+    <t>IH_005</t>
+  </si>
+  <si>
+    <t>IH_010</t>
+  </si>
+  <si>
+    <t>IH_004</t>
+  </si>
+  <si>
+    <t>IH_002</t>
+  </si>
+  <si>
+    <t>IH_009</t>
+  </si>
+  <si>
+    <t>IH_013</t>
+  </si>
+  <si>
+    <t>IH_006</t>
+  </si>
+  <si>
+    <t>IH_012</t>
+  </si>
+  <si>
+    <t>IH_016</t>
+  </si>
+  <si>
+    <t>IH_014</t>
+  </si>
+  <si>
+    <t>IH_003</t>
+  </si>
+  <si>
+    <t>IH_008</t>
+  </si>
+  <si>
+    <t>IH_015</t>
+  </si>
+  <si>
+    <t>IH_011</t>
+  </si>
+  <si>
+    <t>IH_007</t>
+  </si>
+  <si>
+    <t>IH_019</t>
+  </si>
+  <si>
+    <t>IH_017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -367,9 +451,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -534,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,517 +773,577 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="1"/>
-    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>95</v>
       </c>
     </row>

--- a/data/Spreadsheet_Data/Character.xlsx
+++ b/data/Spreadsheet_Data/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A8FEB-343A-FA4C-8225-49C0A775AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163AC918-0C3A-3B44-B5A7-4113F5BB3973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31580" yWindow="500" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
+    <workbookView xWindow="33520" yWindow="3500" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -295,33 +295,6 @@
     <t>Deputy Director, Head of Engineering</t>
   </si>
   <si>
-    <t>Data Specialist, Scientific Programmer</t>
-  </si>
-  <si>
-    <t>M.A.</t>
-  </si>
-  <si>
-    <t>B.A.</t>
-  </si>
-  <si>
-    <t>B.Sc.</t>
-  </si>
-  <si>
-    <t>PD Dr.</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>B.BI</t>
-  </si>
-  <si>
-    <t>Dipl.-Ind.-Eng.</t>
-  </si>
-  <si>
-    <t>M.Sc.</t>
-  </si>
-  <si>
     <t>Repository Services</t>
   </si>
   <si>
@@ -395,15 +368,46 @@
   </si>
   <si>
     <t>IH_017</t>
+  </si>
+  <si>
+    <t>edu_1</t>
+  </si>
+  <si>
+    <t>edu_2</t>
+  </si>
+  <si>
+    <t>edu_8</t>
+  </si>
+  <si>
+    <t>edu_3</t>
+  </si>
+  <si>
+    <t>edu_4</t>
+  </si>
+  <si>
+    <t>edu_5</t>
+  </si>
+  <si>
+    <t>edu_6</t>
+  </si>
+  <si>
+    <t>edu_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -451,11 +455,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +778,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -828,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -842,11 +847,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>87</v>
+      <c r="J2" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -865,11 +870,11 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="J3" t="s">
-        <v>88</v>
+      <c r="J3" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -877,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -888,11 +893,11 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" t="s">
-        <v>89</v>
+      <c r="J4" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -900,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -914,11 +919,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>90</v>
+      <c r="J5" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -926,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -937,11 +942,11 @@
       <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>91</v>
+      <c r="J6" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -949,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -960,11 +965,11 @@
       <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
+      <c r="J7" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -972,7 +977,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -986,11 +991,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
+      <c r="J8" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -998,7 +1003,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -1012,11 +1017,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
         <v>87</v>
-      </c>
-      <c r="K9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1024,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -1035,11 +1040,11 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" t="s">
-        <v>94</v>
+      <c r="J10" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1047,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1058,11 +1063,11 @@
       <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
-        <v>91</v>
+      <c r="J11" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1070,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -1081,11 +1086,11 @@
       <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="J12" t="s">
-        <v>88</v>
+      <c r="J12" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1093,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1104,11 +1109,11 @@
       <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s">
-        <v>87</v>
+      <c r="J13" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -1127,11 +1132,11 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="J14" t="s">
-        <v>94</v>
+      <c r="J14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1150,11 +1155,11 @@
       <c r="F15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" t="s">
-        <v>94</v>
+      <c r="J15" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1162,7 +1167,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -1176,11 +1181,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>94</v>
+      <c r="J16" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
@@ -1199,11 +1204,11 @@
       <c r="F17" t="s">
         <v>79</v>
       </c>
-      <c r="J17" t="s">
-        <v>88</v>
+      <c r="J17" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1211,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -1222,11 +1227,11 @@
       <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" t="s">
-        <v>89</v>
+      <c r="J18" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1234,7 +1239,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -1248,11 +1253,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
-        <v>91</v>
+      <c r="J19" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1260,7 +1265,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -1274,11 +1279,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
-        <v>94</v>
+      <c r="J20" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1286,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -1298,7 +1303,7 @@
         <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1306,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
@@ -1320,11 +1325,11 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>91</v>
+      <c r="J22" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1338,13 +1343,13 @@
         <v>74</v>
       </c>
       <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" t="s">
         <v>86</v>
-      </c>
-      <c r="J23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Character.xlsx
+++ b/data/Spreadsheet_Data/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163AC918-0C3A-3B44-B5A7-4113F5BB3973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91EBAD-E215-EF4C-9A39-5E0754885282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33520" yWindow="3500" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
+    <workbookView xWindow="33500" yWindow="5840" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,25 +414,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,9 +458,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,9 +479,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,7 +519,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -625,7 +625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -793,38 +793,38 @@
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C2" t="s">
@@ -847,7 +847,7 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K2" t="s">
@@ -858,7 +858,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C3" t="s">
@@ -870,7 +870,7 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K3" t="s">
@@ -881,7 +881,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C4" t="s">
@@ -893,7 +893,7 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>112</v>
       </c>
       <c r="K4" t="s">
@@ -904,7 +904,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C5" t="s">
@@ -919,7 +919,7 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="K5" t="s">
@@ -930,7 +930,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C6" t="s">
@@ -942,7 +942,7 @@
       <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K6" t="s">
@@ -953,7 +953,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C7" t="s">
@@ -965,7 +965,7 @@
       <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="K7" t="s">
@@ -976,7 +976,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C8" t="s">
@@ -991,7 +991,7 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="K8" t="s">
@@ -1002,7 +1002,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C9" t="s">
@@ -1017,7 +1017,7 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K9" t="s">
@@ -1028,7 +1028,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
@@ -1040,7 +1040,7 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>115</v>
       </c>
       <c r="K10" t="s">
@@ -1051,7 +1051,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C11" t="s">
@@ -1063,7 +1063,7 @@
       <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K11" t="s">
@@ -1074,7 +1074,7 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C12" t="s">
@@ -1086,7 +1086,7 @@
       <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K12" t="s">
@@ -1097,7 +1097,7 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C13" t="s">
@@ -1109,7 +1109,7 @@
       <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K13" t="s">
@@ -1120,7 +1120,7 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C14" t="s">
@@ -1132,7 +1132,7 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>115</v>
       </c>
       <c r="K14" t="s">
@@ -1143,7 +1143,7 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C15" t="s">
@@ -1155,7 +1155,7 @@
       <c r="F15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>115</v>
       </c>
       <c r="K15" t="s">
@@ -1166,7 +1166,7 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C16" t="s">
@@ -1181,7 +1181,7 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>115</v>
       </c>
       <c r="K16" t="s">
@@ -1192,7 +1192,7 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C17" t="s">
@@ -1204,7 +1204,7 @@
       <c r="F17" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K17" t="s">
@@ -1215,7 +1215,7 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C18" t="s">
@@ -1227,7 +1227,7 @@
       <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="K18" t="s">
@@ -1238,7 +1238,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C19" t="s">
@@ -1253,7 +1253,7 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K19" t="s">
@@ -1264,7 +1264,7 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C20" t="s">
@@ -1279,7 +1279,7 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>115</v>
       </c>
       <c r="K20" t="s">
@@ -1290,7 +1290,7 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C21" t="s">
@@ -1310,7 +1310,7 @@
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C22" t="s">
@@ -1325,7 +1325,7 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K22" t="s">
@@ -1345,7 +1345,7 @@
       <c r="F23" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K23" t="s">

--- a/data/Spreadsheet_Data/Character.xlsx
+++ b/data/Spreadsheet_Data/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91EBAD-E215-EF4C-9A39-5E0754885282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C18C5-3068-3F42-A67F-22FF50CF5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33500" yWindow="5840" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
+    <workbookView xWindow="9120" yWindow="3060" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>edu_7</t>
+  </si>
+  <si>
+    <t>fondant au chocolat</t>
+  </si>
+  <si>
+    <t>bla bla</t>
   </si>
 </sst>
 </file>
@@ -479,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -625,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +784,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -788,7 +794,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -844,6 +850,9 @@
       <c r="F2" t="s">
         <v>75</v>
       </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -870,6 +879,9 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>111</v>
       </c>
@@ -893,6 +905,9 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>112</v>
       </c>
@@ -916,6 +931,9 @@
       <c r="F5" t="s">
         <v>77</v>
       </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
       <c r="H5">
         <v>1</v>
       </c>
@@ -942,6 +960,9 @@
       <c r="F6" t="s">
         <v>78</v>
       </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>116</v>
       </c>
@@ -965,6 +986,9 @@
       <c r="F7" t="s">
         <v>79</v>
       </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>113</v>
       </c>
@@ -988,6 +1012,9 @@
       <c r="F8" t="s">
         <v>79</v>
       </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
@@ -1014,6 +1041,9 @@
       <c r="F9" t="s">
         <v>79</v>
       </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -1040,6 +1070,9 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>115</v>
       </c>
@@ -1063,6 +1096,9 @@
       <c r="F11" t="s">
         <v>81</v>
       </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>116</v>
       </c>
@@ -1086,6 +1122,9 @@
       <c r="F12" t="s">
         <v>82</v>
       </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>111</v>
       </c>
@@ -1109,6 +1148,9 @@
       <c r="F13" t="s">
         <v>75</v>
       </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>114</v>
       </c>
@@ -1132,6 +1174,9 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>115</v>
       </c>
@@ -1155,6 +1200,9 @@
       <c r="F15" t="s">
         <v>83</v>
       </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>115</v>
       </c>
@@ -1178,6 +1226,9 @@
       <c r="F16" t="s">
         <v>84</v>
       </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
       <c r="H16">
         <v>1</v>
       </c>
@@ -1204,6 +1255,9 @@
       <c r="F17" t="s">
         <v>79</v>
       </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>111</v>
       </c>
@@ -1227,6 +1281,9 @@
       <c r="F18" t="s">
         <v>76</v>
       </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>112</v>
       </c>
@@ -1250,6 +1307,9 @@
       <c r="F19" t="s">
         <v>85</v>
       </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
       <c r="H19">
         <v>1</v>
       </c>
@@ -1276,6 +1336,9 @@
       <c r="F20" t="s">
         <v>80</v>
       </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -1302,6 +1365,9 @@
       <c r="F21" t="s">
         <v>84</v>
       </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
       <c r="K21" t="s">
         <v>87</v>
       </c>
@@ -1322,8 +1388,14 @@
       <c r="F22" t="s">
         <v>81</v>
       </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>119</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>116</v>
@@ -1344,6 +1416,9 @@
       </c>
       <c r="F23" t="s">
         <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>114</v>

--- a/data/Spreadsheet_Data/Character.xlsx
+++ b/data/Spreadsheet_Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C18C5-3068-3F42-A67F-22FF50CF5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D80F2-0D10-114A-85D3-547C96D645D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="3060" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
+    <workbookView xWindow="25260" yWindow="500" windowWidth="43180" windowHeight="18460" xr2:uid="{A09A4E4C-5FD7-A84F-AC39-A167D4D60F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/data/Spreadsheet_Data/Character.xlsx
+++ b/data/Spreadsheet_Data/Character.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1456F-1C4A-3143-884D-8688D4A56B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF2649-DCC3-7244-B1B5-70B3D73F3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54220" yWindow="500" windowWidth="22580" windowHeight="31400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="620" windowWidth="76480" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="524">
   <si>
     <t>ID</t>
   </si>
@@ -976,9 +976,6 @@
     <t>Have some wine</t>
   </si>
   <si>
-    <t>The Cheshire Cat's interactions with Alice are both enlightening and cryptic, guiding her through DaSCHland with riddles and philosophical insights that challenge her perceptions. His ability to phase in and out of digital visibility symbolizes the fluid nature of information in the digital age, where data can be both omnipresent and elusive.</t>
-  </si>
-  <si>
     <t>The Real-Time Processor</t>
   </si>
   <si>
@@ -1025,9 +1022,6 @@
   </si>
   <si>
     <t>When we were little, we went to school in the sea. The master was an old turtle—we used to call him Tortoise—"</t>
-  </si>
-  <si>
-    <t>This version of the Cheshire Cat not only serves as a guide through the labyrinthine digital landscape but also as a reminder of the transformative power of technology in reshaping narratives and character interactions within this virtual world. His presence is a constant reminder of the enigmatic and ever-changing nature of the digital realm Alice explores.</t>
   </si>
   <si>
     <t>Mock-up Data</t>
@@ -1676,35 +1670,12 @@
 He later reappears briefly as one of the jurors during the trial</t>
   </si>
   <si>
-    <t>The Jabberwock is a fictional monster featured in the poem “Jabberwocky,” which appears in Through the Looking-Glass.
-The Jabberwock is a fearsome creature described in the nonsensical poem with features like “jaws that bite,” “claws that catch,” and “eyes of flame.”
-The poem tells the story of a hero who slays the Jabberwock with a “vorpal sword,” cutting off its head and triumphantly returning home.
-In a letter to Mrs. Chataway, the mother of a child-friend, Carroll elucidates that the scene of the 'Snark' is "an island, frequented by the Jubjub and Bandersnatch – no doubt the very island where the Jabberwock was slain." (Source: Gardner, Martin. The Annotated Alice. The definitive edition, Penguin Books, 2001, p.161)</t>
-  </si>
-  <si>
     <t>Pat is a servant of the White Rabbit in in Alice’s Adventures in Wonderland.  He is called upon, along with Bill the Lizard, to help remove Alice from the Rabbit’s house after she grows too large and gets stuck inside. 
 He is described as somewhat bumbling and comical, engaging in a humorous conversation about how to deal with the situation.</t>
   </si>
   <si>
     <t>Mary Ann is the White Rabbit’s housemaid. 
 Although she never appears physically, she is important because the White Rabbit mistakes Alice for her when Alice enters his house.</t>
-  </si>
-  <si>
-    <t>The Eaglet is one of the animals that fall into the pool of tears with Alice.
-It participates in the Caucus Race, a nonsensical race where everyone wins.
-The Eaglet is depicted as intelligent and somewhat critical, questioning the Dodo’s explanations.
-She is said to be modeled after Alice’s sister, Edith (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>The Lory is a talking bird that falls into the pool of tears along with Alice and other creatures.
-It participates in the Caucus Race, where everyone runs in circles and “wins.”
-The Lory is depicted as proud and argumentative, refusing to let Alice have the last word in their conversation.
-She is said to be modeled after Alice’s sister, Lorina (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>The Duck is one of the animals that fall into the pool of tears with Alice.
-It participates in the Caucus Race, a nonsensical event where everyone wins.
-The character is believed to be based on Reverend Duckworth, a friend of Lewis Carroll who accompanied Alice Liddell and her sisters on the boat trip where Carroll first told the story. (source: https://en.wikipedia.org/wiki/Robinson_Duckworth)</t>
   </si>
   <si>
     <t xml:space="preserve">Dinah is a real-world kitten that Alice adores. She is described as an excellent mouser and bird-catcher.
@@ -1728,19 +1699,6 @@
 He serves as the judge during the trial of the Knave of Hearts, who is accused of stealing the Queen’s tarts.
 He follows absurd legal procedures, often making nonsensical rulings, such as demanding a verdict before the evidence is presented.
 Unlike the Queen, who frequently yells “Off with their heads!”, the King often softens her harsh orders and tries to keep things under control.</t>
-  </si>
-  <si>
-    <t>She is an unnamed older sister of Alice, present at the beginning and end of the story.
-At the start, she sits with Alice by the riverbank, reading a book with “no pictures or conversations,” which bores Alice and leads her to daydream about Wonderland.
-At the end, after Alice wakes up from her dream, her sister gently sends her home and reflects on Alice’s adventures, imagining that Alice will one day grow up but still retain her childlike wonder.
-Her character is likely a fictionalized counterpart to Lorina Charlotte "Ina" Liddell (1849-1930), the real-life elder sister of Alice Liddell. The real Alice's older sister, Lorina, was actually only three years her senior. (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>The Dodo is one of the animals that fall into the pool of tears with Alice.
-He organizes the Caucus Race, a nonsensical event where everyone runs in circles with no clear rules, and everyone wins.
-The dodo, a flightless bird that once inhabited the island of Mauritius, located east of Madagascar in the Indian Ocean, became extinct in the mid-17th century during the colonisation of the island by the Dutch. 
-The character is believed to represent Lewis Carroll himself (Charles Dodgson), as “Dodo” is thought to be a reference to Dodgson’s own stammer, which made him pronounce his surname as “Do-do-Dodgson.”
-(source: alice-in-wonderland.net)</t>
   </si>
   <si>
     <t>The Mouse is one of the creatures that fall into the pool of tears Alice creates when she grows too large.
@@ -1768,12 +1726,6 @@
 Couldn’t put Humpty together again."</t>
   </si>
   <si>
-    <t>The Red Queen is a chess piece on the Red side, known for being strict, commanding, and highly logical.
-She first meets Alice in Chapter 2 and explains the rules of the Looking-Glass world, where Alice must move like a pawn to reach the eighth square and become a queen.
-She later appears at Alice’s coronation banquet, where the event descends into chaos.
-It is possible that the Red Queen was modelled after the governess for the Liddell children, Miss Prickett, who was known as 'Pricks'. (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
     <t>The Gryphon is a mythical creature with the body of a lion and the wings and head of an eagle.
 He serves as a guide to Alice, taking her to meet the Mock Turtle and listening to his sorrowful tales.
 Unlike many Wonderland characters, he is bossy but not hostile, often rushing the Mock Turtle through his stories.
@@ -1797,11 +1749,76 @@
 He is named Haigha in the second book.</t>
   </si>
   <si>
-    <t>The Queen of Hearts is the ruler of Wonderland, known for her explosive temper and frequent orders of “Off with their heads!”
-She is tyrannical, irrational, and quick to anger, though her executions are never actually carried out (likely because the King of Hearts quietly pardons everyone).
-She hosts a chaotic croquet game, where flamingos are used as mallets and hedgehogs as balls.
-Carroll wrote the following about the Queen of Hearts:
-"I pictured the Queen of Hearts as a sort of embodiment of ungovernable passion – a blind and aimless Fury." (source: alice-in-wonderland.net)</t>
+    <t>The Caterpillar is a calm, philosophical, and slightly rude blue creature who smokes a hookah while speaking with Alice.
+He questions Alice’s identity, repeatedly asking, “Who are you?”, which confuses her.
+He gives cryptic advice, telling Alice that eating different parts of a mushroom will make her grow or shrink.
+The text describes the Caterpillar as blue ('a large blue caterpillar').</t>
+  </si>
+  <si>
+    <t>I_020, I_087</t>
+  </si>
+  <si>
+    <t>I_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_032, 
+I_030 </t>
+  </si>
+  <si>
+    <t>I_092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_070, I_071 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_025, I_026, I_038, I_039, I_069, I_077, I_027 </t>
+  </si>
+  <si>
+    <t>I_021, I_023, I_024, I_031</t>
+  </si>
+  <si>
+    <t>I_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_025, I_027, I_076, I_077 </t>
+  </si>
+  <si>
+    <t>I_001, I_002, I_006, I_037, I_012</t>
+  </si>
+  <si>
+    <t>I_003, I_004, I_005, I_006, I_007, I_008, I_009, I_010, I_011, I_012, I_014, I_015, I_021, I_022, I_023, I_025, I_029, I_030, I_032, I_034, I_035, I_040, I_042, I_043, I_045, I_046, I_047, I_049, I_052, I_053, I_055, I_056, I_060, I_061, I_066, I_067, I_068, I_070, I_071, I_072, I_076, I_077, I_078, I_079, I_080, I_081, I_082, I_084, I_085, I_086, I_087, I_089, I_090, I_091, I_092</t>
+  </si>
+  <si>
+    <t>Footnote</t>
+  </si>
+  <si>
+    <t>source: alice-in-wonderland.net</t>
+  </si>
+  <si>
+    <t>source: https://en.wikipedia.org/wiki/Robinson_Duckworth</t>
+  </si>
+  <si>
+    <t>Alice is a young English girl. She is the main protagonist of Alice’s Adventures in Wonderland and Through the Looking-Glass and What Alice Found There. She is a curious, imaginative, and bold young girl who finds herself in bizarre, dreamlike worlds filled with nonsense and eccentric characters.
+Alice is a seven-year-old girl in Alice’s Adventures in Wonderland and slightly older in Through the Looking-Glass.
+She follows the White Rabbit down a rabbit hole, leading her into Wonderland, where she experiences strange adventures and meets absurd characters.
+In the Looking-Glass world, she plays through a giant chess game, moving from pawn to queen.
+The beautiful pictures of Alice, drawn by John Tenniel, were inspired by Mary Hilton Badcock, the daughter of the Dean of Ripon. Although she was suggested as a model, it's not clear if Tenniel fully took this suggestion *source: alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t>The White Rabbit is a nervous, hurried character who serves as Alice’s initial guide into Wonderland.
+He is first seen checking his pocket watch and exclaiming, “Oh dear! Oh dear! I shall be late!” before disappearing down the rabbit hole.
+He works as a servant for the Queen of Hearts and is terrified of her temper.
+He mistakes Alice for his housemaid, Mary Ann, in Chapter 4 and panics when she grows giant inside his house.
+The White Rabbit is always late, which is a nod to Oxford time. At Oxford, especially at Christ Church, where Carroll used to teach, events often start five minutes after the scheduled hour *source: alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t>The Mad Hatter is a tea-obsessed, eccentric character who hosts the Mad Tea Party with the March Hare and the Dormouse.
+He is called “mad” because Time has punished him by stopping time at 6 o’clock, meaning it is always tea-time for him.
+He loves riddles and wordplay, famously asking Alice: “Why is a raven like a writing desk?”—a riddle with no real answer.
+He appears again at the trial of the Knave of Hearts, where he nervously testifies before the Queen of Hearts.
+In 'Through the Looking-Glass', the Hatter returns in the form of the Anglo-Saxon messenger 'Hatta'.
+Contrary to popular belief, Lewis Carroll never referred to the Hatter as 'the Mad Hatter' in the story. He simply called him 'the Hatter'.
+The phrase 'mad as a hatter' was common in Carroll's time, probably because hatters actually did go mad, as the mercury they used sometimes gave them mercury poisoning *source: alice-in-wonderland.net*.</t>
   </si>
   <si>
     <t>The Cheshire Cat is a mischievous, grinning cat who gives philosophical advice to Alice.
@@ -1813,70 +1830,59 @@
 'To grin like a Cheshire Cat' was a common phrase in Carroll's day. 
 It may have originated from a sign painter in Cheshire who painted grinning lions on the sign-boards of inns in the area.
 Another source is the 'Alice Window' in Christ Church, Oxford, where you can see three grinning animals at the top of the Liddell's family arms. 
-Cheshire cheeses were also once molded in the shape of a grinning cat. (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>The Mad Hatter is a tea-obsessed, eccentric character who hosts the Mad Tea Party with the March Hare and the Dormouse.
-He is called “mad” because Time has punished him by stopping time at 6 o’clock, meaning it is always tea-time for him.
-He loves riddles and wordplay, famously asking Alice: “Why is a raven like a writing desk?”—a riddle with no real answer.
-He appears again at the trial of the Knave of Hearts, where he nervously testifies before the Queen of Hearts.
-In 'Through the Looking-Glass', the Hatter returns in the form of the Anglo-Saxon messenger 'Hatta'.
-Contrary to popular belief, Lewis Carroll never referred to the Hatter as 'the Mad Hatter' in the story. He simply called him 'the Hatter'.
-The phrase 'mad as a hatter' was common in Carroll's time, probably because hatters actually did go mad, as the mercury they used sometimes gave them mercury poisoning. (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>The White Rabbit is a nervous, hurried character who serves as Alice’s initial guide into Wonderland.
-He is first seen checking his pocket watch and exclaiming, “Oh dear! Oh dear! I shall be late!” before disappearing down the rabbit hole.
-He works as a servant for the Queen of Hearts and is terrified of her temper.
-He mistakes Alice for his housemaid, Mary Ann, in Chapter 4 and panics when she grows giant inside his house.
-The White Rabbit is always late, which is a nod to Oxford time. At Oxford, especially at Christ Church, where Carroll used to teach, events often start five minutes after the scheduled hour. (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>The Caterpillar is a calm, philosophical, and slightly rude blue creature who smokes a hookah while speaking with Alice.
-He questions Alice’s identity, repeatedly asking, “Who are you?”, which confuses her.
-He gives cryptic advice, telling Alice that eating different parts of a mushroom will make her grow or shrink.
-The text describes the Caterpillar as blue ('a large blue caterpillar').</t>
-  </si>
-  <si>
-    <t>Alice is a young English girl. She is the main protagonist of Alice’s Adventures in Wonderland and Through the Looking-Glass and What Alice Found There. She is a curious, imaginative, and bold young girl who finds herself in bizarre, dreamlike worlds filled with nonsense and eccentric characters.
-Alice is a seven-year-old girl in Alice’s Adventures in Wonderland and slightly older in Through the Looking-Glass.
-She follows the White Rabbit down a rabbit hole, leading her into Wonderland, where she experiences strange adventures and meets absurd characters.
-In the Looking-Glass world, she plays through a giant chess game, moving from pawn to queen.
-The beautiful pictures of Alice, drawn by John Tenniel, were inspired by Mary Hilton Badcock, the daughter of the Dean of Ripon. Although she was suggested as a model, it's not clear if Tenniel fully took this suggestion. (source: alice-in-wonderland.net)</t>
-  </si>
-  <si>
-    <t>I_020, I_087</t>
-  </si>
-  <si>
-    <t>I_078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_032, 
-I_030 </t>
-  </si>
-  <si>
-    <t>I_092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_070, I_071 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_025, I_026, I_038, I_039, I_069, I_077, I_027 </t>
-  </si>
-  <si>
-    <t>I_021, I_023, I_024, I_031</t>
-  </si>
-  <si>
-    <t>I_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_025, I_027, I_076, I_077 </t>
-  </si>
-  <si>
-    <t>I_001, I_002, I_006, I_037, I_012</t>
-  </si>
-  <si>
-    <t>I_003, I_004, I_005, I_006, I_007, I_008, I_009, I_010, I_011, I_012, I_014, I_015, I_021, I_022, I_023, I_025, I_029, I_030, I_032, I_034, I_035, I_040, I_042, I_043, I_045, I_046, I_047, I_049, I_052, I_053, I_055, I_056, I_060, I_061, I_066, I_067, I_068, I_070, I_071, I_072, I_076, I_077, I_078, I_079, I_080, I_081, I_082, I_084, I_085, I_086, I_087, I_089, I_090, I_091, I_092</t>
+Cheshire cheeses were also once molded in the shape of a grinning cat *source: alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t>The Queen of Hearts is the ruler of Wonderland, known for her explosive temper and frequent orders of “Off with their heads!”
+She is tyrannical, irrational, and quick to anger, though her executions are never actually carried out (likely because the King of Hearts quietly pardons everyone).
+She hosts a chaotic croquet game, where flamingos are used as mallets and hedgehogs as balls.
+Carroll wrote the following about the Queen of Hearts:
+"I pictured the Queen of Hearts as a sort of embodiment of ungovernable passion – a blind and aimless Fury." *source: alice-in-wonderland.net*</t>
+  </si>
+  <si>
+    <t>The Red Queen is a chess piece on the Red side, known for being strict, commanding, and highly logical.
+She first meets Alice in Chapter 2 and explains the rules of the Looking-Glass world, where Alice must move like a pawn to reach the eighth square and become a queen.
+She later appears at Alice’s coronation banquet, where the event descends into chaos.
+It is possible that the Red Queen was modelled after the governess for the Liddell children, Miss Prickett, who was known as 'Pricks' *source: alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dodo is one of the animals that fall into the pool of tears with Alice.
+He organizes the Caucus Race, a nonsensical event where everyone runs in circles with no clear rules, and everyone wins.
+The dodo, a flightless bird that once inhabited the island of Mauritius, located east of Madagascar in the Indian Ocean, became extinct in the mid-17th century during the colonisation of the island by the Dutch. 
+The character is believed to represent Lewis Carroll himself (Charles Dodgson), as “Dodo” is thought to be a reference to Dodgson’s own stammer, which made him pronounce his surname as “Do-do-Dodgson.” *source: alice-in-wonderland.net*
+</t>
+  </si>
+  <si>
+    <t>She is an unnamed older sister of Alice, present at the beginning and end of the story.
+At the start, she sits with Alice by the riverbank, reading a book with “no pictures or conversations,” which bores Alice and leads her to daydream about Wonderland.
+At the end, after Alice wakes up from her dream, her sister gently sends her home and reflects on Alice’s adventures, imagining that Alice will one day grow up but still retain her childlike wonder.
+Her character is likely a fictionalized counterpart to Lorina Charlotte "Ina" Liddell (1849-1930), the real-life elder sister of Alice Liddell. The real Alice's older sister, Lorina, was actually only three years her senior *source: alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t>The Lory is a talking bird that falls into the pool of tears along with Alice and other creatures.
+It participates in the Caucus Race, where everyone runs in circles and “wins.”
+The Lory is depicted as proud and argumentative, refusing to let Alice have the last word in their conversation.
+She is said to be modeled after Alice’s sister, Lorina *source: alice-in-wonderland.net*</t>
+  </si>
+  <si>
+    <t>The Eaglet is one of the animals that fall into the pool of tears with Alice.
+It participates in the Caucus Race, a nonsensical race where everyone wins.
+The Eaglet is depicted as intelligent and somewhat critical, questioning the Dodo’s explanations.
+She is said to be modeled after Alice’s sister, Edith *source: alice-in-wonderland.net*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Source: </t>
+  </si>
+  <si>
+    <t>The Jabberwock is a fictional monster featured in the poem “Jabberwocky,” which appears in Through the Looking-Glass.
+The Jabberwock is a fearsome creature described in the nonsensical poem with features like “jaws that bite,” “claws that catch,” and “eyes of flame.”
+The poem tells the story of a hero who slays the Jabberwock with a “vorpal sword,” cutting off its head and triumphantly returning home.
+In a letter to Mrs. Chataway, the mother of a child-friend, Carroll elucidates that the scene of the 'Snark' is "an island, frequented by the Jubjub and Bandersnatch – no doubt the very island where the Jabberwock was slain." *source: Gardner, Martin. The Annotated Alice. The definitive edition, Penguin Books, 2001, p.161*</t>
+  </si>
+  <si>
+    <t>The Duck is one of the animals that fall into the pool of tears with Alice.
+It participates in the Caucus Race, a nonsensical event where everyone wins.
+The character is believed to be based on Reverend Duckworth, a friend of Lewis Carroll who accompanied Alice Liddell and her sisters on the boat trip where Carroll first told the story *source: https://en.wikipedia.org/wiki/Robinson_Duckworth*.</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2042,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2127,6 +2133,27 @@
         <outline val="0"/>
         <shadow val="0"/>
         <sz val="14"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -2330,18 +2357,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M55" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N55" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N55">
     <sortCondition ref="A1:A55"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name EN" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name DE" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="7"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name EN" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name DE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="4"/>
@@ -2533,30 +2561,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="26.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="136" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="35.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="132.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.6640625" style="1"/>
+    <col min="2" max="5" width="26.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="136" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="132.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2575,29 +2602,32 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2614,68 +2644,72 @@
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>454</v>
-      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="M2" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="247" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
@@ -2692,29 +2726,30 @@
         <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>275</v>
       </c>
@@ -2731,29 +2766,32 @@
         <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="M5" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
@@ -2770,68 +2808,74 @@
         <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="M6" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="266" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="190" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>284</v>
       </c>
@@ -2848,29 +2892,28 @@
         <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="M8" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>118</v>
       </c>
@@ -2887,68 +2930,68 @@
         <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="95" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="11" t="s">
+      <c r="M10" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="266" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>203</v>
       </c>
@@ -2965,66 +3008,70 @@
         <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="266" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="342" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>212</v>
       </c>
@@ -3041,105 +3088,108 @@
         <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="304" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="323" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="304" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
@@ -3156,29 +3206,32 @@
         <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -3195,27 +3248,30 @@
         <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="G17" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="342" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>236</v>
       </c>
@@ -3232,29 +3288,30 @@
         <v>240</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="G18" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>108</v>
       </c>
@@ -3271,29 +3328,30 @@
         <v>112</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="G19" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="361" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>246</v>
       </c>
@@ -3310,27 +3368,28 @@
         <v>250</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="G20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="380" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>95</v>
       </c>
@@ -3347,27 +3406,27 @@
         <v>96</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="G21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="342" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>128</v>
       </c>
@@ -3384,27 +3443,30 @@
         <v>132</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="G22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="304" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>269</v>
       </c>
@@ -3421,27 +3483,30 @@
         <v>270</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="G23" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="304" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>137</v>
       </c>
@@ -3458,99 +3523,102 @@
         <v>141</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="G24" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="304" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="I26" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="323" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="361" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" ht="361" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>218</v>
       </c>
@@ -3567,27 +3635,30 @@
         <v>222</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="G27" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="361" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -3604,101 +3675,102 @@
         <v>40</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="G28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="342" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="361" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>188</v>
       </c>
@@ -3715,29 +3787,29 @@
         <v>192</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="G31" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>511</v>
-      </c>
       <c r="M31" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="361" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>161</v>
       </c>
@@ -3754,29 +3826,29 @@
         <v>165</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G32" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
@@ -3793,29 +3865,29 @@
         <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G33" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="M33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="N33" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="361" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
@@ -3832,27 +3904,27 @@
         <v>91</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G34" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>145</v>
       </c>
@@ -3869,25 +3941,25 @@
         <v>149</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G35" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="L35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>171</v>
       </c>
@@ -3904,29 +3976,29 @@
         <v>175</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G36" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="N36" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="380" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>180</v>
       </c>
@@ -3943,27 +4015,27 @@
         <v>184</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G37" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="L37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>513</v>
-      </c>
       <c r="M37" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="398" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="380" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>227</v>
       </c>
@@ -3980,27 +4052,27 @@
         <v>231</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="G38" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="L38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="N38" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="209" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="209" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>153</v>
       </c>
@@ -4017,25 +4089,25 @@
         <v>157</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="G39" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="6"/>
+      <c r="L39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="N39" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="95" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="95" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>261</v>
       </c>
@@ -4052,25 +4124,25 @@
         <v>265</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G40" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="M40" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="152" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="152" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -4087,25 +4159,25 @@
         <v>49</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G41" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="6"/>
+      <c r="L41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="N41" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
@@ -4122,165 +4194,165 @@
         <v>83</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G42" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="6"/>
+      <c r="L42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="M42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="38" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G43" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="266" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="F44" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G44" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="6"/>
+      <c r="L44" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="L44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="133" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="G46" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
-        <v>410</v>
-      </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="N46" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="171" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
@@ -4297,165 +4369,165 @@
         <v>57</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="G47" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="M47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="N47" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="114" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="G48" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="L48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G49" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="6"/>
+      <c r="L49" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:14" ht="76" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>439</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="G50" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6" t="s">
+      <c r="K50" s="6"/>
+      <c r="L50" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:14" ht="114" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G51" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="L51" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="K51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="171" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -4472,58 +4544,58 @@
         <v>200</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G52" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="6"/>
+      <c r="L52" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G53" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="190" x14ac:dyDescent="0.2">
+      <c r="K53" s="6"/>
+      <c r="L53" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="190" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>255</v>
       </c>
@@ -4540,56 +4612,58 @@
         <v>258</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="G54" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="6"/>
+      <c r="L54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="L54" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="190" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="190" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="G55" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="M55" s="6" t="s">
+      <c r="K55" s="6"/>
+      <c r="L55" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="N55" s="6" t="s">
         <v>260</v>
       </c>
     </row>
